--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>* Les période du mardi matin sont obligatoires. Les autres seront réservés aux questions et rencontres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code fait pour ajouter une musique lorsque l'on clique sur une carte </t>
+  </si>
+  <si>
+    <t>Créer différents niveaux de difficultées avec des sons simples ou seulement image</t>
+  </si>
+  <si>
+    <t>Amélioration du code</t>
+  </si>
+  <si>
+    <t>Animation du tournage de carte</t>
+  </si>
+  <si>
+    <t>Gestion du jeux, la fin, le timer</t>
+  </si>
+  <si>
+    <t>Chargement aléatoire des sons</t>
+  </si>
+  <si>
+    <t>Créer interface d'acceuil</t>
+  </si>
+  <si>
+    <t>Création d'interface de jeu</t>
   </si>
 </sst>
 </file>
@@ -1568,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,36 +1649,56 @@
       <c r="A16" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>3</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
@@ -1663,7 +1707,7 @@
       <c r="B21" s="19"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1693,22 +1737,34 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
@@ -1752,13 +1808,13 @@
       <c r="B34" s="19"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="str">
         <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 90h</v>
+        <v>Il y a 6h de trop</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Création d'interface de jeu</t>
+  </si>
+  <si>
+    <t>Créer le projet, essayer de faire fonctionner l'émulateur</t>
+  </si>
+  <si>
+    <t>Cliquer sur un bouton du MainActivity pour ouvrir une autre activité</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1832,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1890,17 +1897,29 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="12">
+        <v>43179</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4"/>
       <c r="C16" s="15"/>
     </row>
@@ -2011,7 +2030,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Cliquer sur un bouton du MainActivity pour ouvrir une autre activité</t>
+  </si>
+  <si>
+    <t>2018-0-20</t>
+  </si>
+  <si>
+    <t>Faire disparaitre la title bar de ma seconde activité</t>
   </si>
 </sst>
 </file>
@@ -327,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -342,7 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,10 +1714,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>50</v>
@@ -1809,10 +1815,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>46</v>
@@ -1840,7 +1846,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1919,9 +1925,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -2024,13 +2036,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2052,22 +2064,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2259,10 +2271,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2287,22 +2299,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2492,10 +2504,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2520,22 +2532,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2725,10 +2737,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2753,22 +2765,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -152,7 +152,7 @@
     <t>2018-0-20</t>
   </si>
   <si>
-    <t>Faire disparaitre la title bar de ma seconde activité</t>
+    <t>Faire disparaitre la title bar de ma seconde activité (Non Fini)</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1910,7 +1910,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1921,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="15">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1932,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2042,7 +2042,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -149,10 +149,10 @@
     <t>Cliquer sur un bouton du MainActivity pour ouvrir une autre activité</t>
   </si>
   <si>
-    <t>2018-0-20</t>
-  </si>
-  <si>
     <t>Faire disparaitre la title bar de ma seconde activité (Non Fini)</t>
+  </si>
+  <si>
+    <t>Essayer de mettre en full screen</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1925,20 +1925,26 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="18">
+        <v>43179</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43185</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2042,7 +2048,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Essayer de mettre en full screen</t>
+  </si>
+  <si>
+    <t>Créer un image view avec un onClickListener</t>
+  </si>
+  <si>
+    <t>Associer une chanson qui joue quand on clique sur l'imageView et</t>
   </si>
 </sst>
 </file>
@@ -296,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,6 +354,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1947,19 +1971,31 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43185</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="26">
+        <v>43185</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -2048,7 +2084,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>4.75</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2088,9 +2124,12 @@
       <c r="B47" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -158,7 +158,10 @@
     <t>Créer un image view avec un onClickListener</t>
   </si>
   <si>
-    <t>Associer une chanson qui joue quand on clique sur l'imageView et</t>
+    <t>Créer un tableau de chanson et associer un tag au imageView pour aller chercher la chanson dans le tableau a l'indice du tag</t>
+  </si>
+  <si>
+    <t>Associer une chanson qui joue quand on clique sur l'imageView et l'arrêter</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +375,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1986,7 +1995,7 @@
         <v>43185</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="28">
         <v>2</v>
@@ -1998,14 +2007,20 @@
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="26">
+        <v>43186</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2084,7 +2099,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>7.75</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2124,12 +2139,15 @@
       <c r="B47" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="B42:B47"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -1879,7 +1879,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2099,7 +2099,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Associer une chanson qui joue quand on clique sur l'imageView et l'arrêter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réussir à faire rejouer les chansons lorsque l'on change </t>
   </si>
 </sst>
 </file>
@@ -1878,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,7 +2017,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2023,9 +2026,15 @@
       <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="18">
+        <v>43187</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -2099,7 +2108,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>9.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">Réussir à faire rejouer les chansons lorsque l'on change </t>
+  </si>
+  <si>
+    <t>J'aurais dû travailler plus, cependant, mon projet avance quand même bien. Les prochaines itérations vont être mieux. J'ai éprouvé certaines difficultées avec mon mediaplayer de façon qu'il puisse recommencer à jouer, et quand je mets sur pause. Sinon tout va très bien.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +387,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2121,7 +2133,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2130,22 +2144,24 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="32" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="23"/>
+      <c r="B47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>J'aurais dû travailler plus, cependant, mon projet avance quand même bien. Les prochaines itérations vont être mieux. J'ai éprouvé certaines difficultées avec mon mediaplayer de façon qu'il puisse recommencer à jouer, et quand je mets sur pause. Sinon tout va très bien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remettre mon bouton pause qui avait été supprimé </t>
   </si>
 </sst>
 </file>
@@ -356,13 +359,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,13 +392,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2144,24 +2147,24 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="33"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="33"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2184,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2242,9 +2245,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43195</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
@@ -2365,7 +2374,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2387,22 +2396,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="23"/>
+      <c r="B47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2620,22 +2629,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="23"/>
+      <c r="B47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2853,22 +2862,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="32"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
+      <c r="B43" s="33"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
+      <c r="B44" s="33"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="33"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="23"/>
+      <c r="B47" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">Remettre mon bouton pause qui avait été supprimé </t>
+  </si>
+  <si>
+    <t>Mettre un dialog lorsque je clique sur pause, arrêtant ainsi la musique et la redémarre sur play</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +402,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,19 +2257,25 @@
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="26">
+        <v>43201</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2374,7 +2386,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2414,9 +2426,12 @@
       <c r="B47" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Mettre un dialog lorsque je clique sur pause, arrêtant ainsi la musique et la redémarre sur play</t>
+  </si>
+  <si>
+    <t>J'ai réussi à faire la moitiée de ce que je voulais faire. Cependant, j'ai vraiment pas mis assez de temps. J'aurais dû en faire bien plus. Bon bût pour la prochaine itération est de mettre beaucoup plus d'heures ainsi qu'avancer mon projet. Mettre des tag aléatoires et prendres mes musiques pour faire un début et une fin (5 sec/part).</t>
   </si>
 </sst>
 </file>
@@ -355,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -402,9 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1771,10 +1774,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>50</v>
@@ -1872,10 +1875,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>46</v>
@@ -2015,36 +2018,36 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
+      <c r="A19" s="27">
         <v>43185</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="26">
+      <c r="A21" s="27">
         <v>43186</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
@@ -2123,10 +2126,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>10</v>
@@ -2153,24 +2156,24 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2193,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,25 +2260,25 @@
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="19">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <v>43201</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2380,10 +2383,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>2.5</v>
@@ -2399,7 +2402,9 @@
       <c r="A40" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
@@ -2408,22 +2413,24 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="33"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="33"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2616,10 +2623,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2644,22 +2651,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="33"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="33"/>
+      <c r="B43" s="34"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="33"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
+      <c r="B47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2849,10 +2856,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2877,22 +2884,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="33"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="33"/>
+      <c r="B43" s="34"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="33"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="33"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="33"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
+      <c r="B47" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>J'ai réussi à faire la moitiée de ce que je voulais faire. Cependant, j'ai vraiment pas mis assez de temps. J'aurais dû en faire bien plus. Bon bût pour la prochaine itération est de mettre beaucoup plus d'heures ainsi qu'avancer mon projet. Mettre des tag aléatoires et prendres mes musiques pour faire un début et une fin (5 sec/part).</t>
+  </si>
+  <si>
+    <t>Choisir des chansons et les séparés en début-fin</t>
+  </si>
+  <si>
+    <t>Rechercher pour changer des tag aléatoires</t>
+  </si>
+  <si>
+    <t>Atrribuer des chansons aléatoirement</t>
+  </si>
+  <si>
+    <t>Changer la couleur des imageviews cliquer, et reset les couleurs apres 2 clic</t>
+  </si>
+  <si>
+    <t>Vérifier si les sons sont pareil (ou plutôt qu'ils se matchent Début-Fin)</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2450,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2508,28 +2523,56 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>43213</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43213</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43214</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43214</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="18">
+        <v>43214</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2629,7 +2672,7 @@
       <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="3"/>
   </bookViews>
@@ -10,15 +10,14 @@
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration #1" sheetId="2" r:id="rId2"/>
     <sheet name="Iteration #2" sheetId="3" r:id="rId3"/>
-    <sheet name="Iteration #3" sheetId="4" r:id="rId4"/>
-    <sheet name="Iteration #4" sheetId="5" r:id="rId5"/>
+    <sheet name="Iteration Final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -89,21 +88,12 @@
     <t>Semaine 11</t>
   </si>
   <si>
-    <t>Semaine 12</t>
-  </si>
-  <si>
-    <t>Semaine 15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
-    <t>28h</t>
-  </si>
-  <si>
     <t>Auto-évaluation</t>
   </si>
   <si>
@@ -192,6 +182,24 @@
   </si>
   <si>
     <t>Vérifier si les sons sont pareil (ou plutôt qu'ils se matchent Début-Fin)</t>
+  </si>
+  <si>
+    <t>Réussir à matcher les deux sons correctement et changer la couleur en vert en désactivant</t>
+  </si>
+  <si>
+    <t>Verrouiller la rotation des écrans pour ne pas tout recommencer</t>
+  </si>
+  <si>
+    <t>Ajouter un bouton rejouer au menu qui recommence l'activité</t>
+  </si>
+  <si>
+    <t>Essayer d'arranger mon bouton Home pour retourner au menu principal</t>
+  </si>
+  <si>
+    <t>Essayer de faire marcher mon Quit sur le menu principale après avoir appuyer sur le bouton home</t>
+  </si>
+  <si>
+    <t>Arranger le bouton Home en ajoutant une musique en commançant l'activité et arranger mon bouton Replay pour finir l'intention et en recréer un pour pouvoir faire home sans problème</t>
   </si>
 </sst>
 </file>
@@ -335,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +431,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,196 +1218,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6461760" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="E89B00">
-                <a:gamma/>
-                <a:tint val="0"/>
-                <a:invGamma/>
-              </a:srgbClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="E89B00"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="0" scaled="1"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="91440" y="38100"/>
-          <a:ext cx="6370320" cy="601980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="3000">
-              <a:latin typeface="Century Gothic" panose="020B0502020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Itération #4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3825240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="dicj1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4579620" y="0"/>
-          <a:ext cx="1882140" cy="678180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1678,6 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A6:C36"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -1693,7 +1521,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1708,12 +1536,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1738,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -1749,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -1760,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
@@ -1771,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
@@ -1782,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
@@ -1826,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
@@ -1837,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
@@ -1848,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
         <v>20</v>
@@ -1918,9 +1746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -1982,7 +1811,7 @@
         <v>43179</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -1993,7 +1822,7 @@
         <v>43179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15">
         <v>0.75</v>
@@ -2004,7 +1833,7 @@
         <v>43179</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2015,7 +1844,7 @@
         <v>43185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -2026,7 +1855,7 @@
         <v>43185</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
@@ -2037,7 +1866,7 @@
         <v>43185</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="29">
         <v>2</v>
@@ -2053,7 +1882,7 @@
         <v>43186</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="29">
         <v>1</v>
@@ -2069,7 +1898,7 @@
         <v>43187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="15">
         <v>1.25</v>
@@ -2152,13 +1981,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -2169,10 +1998,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2209,9 +2038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2273,7 +2103,7 @@
         <v>43195</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="19">
         <v>0.5</v>
@@ -2284,7 +2114,7 @@
         <v>43201</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="25">
         <v>2</v>
@@ -2297,7 +2127,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="15"/>
@@ -2409,13 +2239,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4">
         <v>3</v>
@@ -2426,10 +2256,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2463,10 +2293,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2527,10 +2358,10 @@
         <v>43213</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2538,7 +2369,7 @@
         <v>43213</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="15">
         <v>0.5</v>
@@ -2549,7 +2380,7 @@
         <v>43214</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="15">
         <v>1.5</v>
@@ -2560,7 +2391,7 @@
         <v>43214</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15">
         <v>0.5</v>
@@ -2571,42 +2402,80 @@
         <v>43214</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>43220</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>43221</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>43221</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A22" s="18">
+        <v>43221</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>43227</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>43227</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
@@ -2672,18 +2541,18 @@
       <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>3.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2692,240 +2561,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="33"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="34"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="34"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="34"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C47"/>
-  <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="70.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="B42" s="33"/>
     </row>

--- a/Doc/estimation.xlsx
+++ b/Doc/estimation.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Semaine 9</t>
   </si>
   <si>
-    <t>Semaine 11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -200,6 +197,39 @@
   </si>
   <si>
     <t>Arranger le bouton Home en ajoutant une musique en commançant l'activité et arranger mon bouton Replay pour finir l'intention et en recréer un pour pouvoir faire home sans problème</t>
+  </si>
+  <si>
+    <t>2018-05-01 2018-05-07</t>
+  </si>
+  <si>
+    <t>Ajouter un effet de "flip" sur mon imageview cliqué</t>
+  </si>
+  <si>
+    <t>2018-05-08 2018-05-09</t>
+  </si>
+  <si>
+    <t>Changer les boutons de l'interface, ajuster pour que les chansons se reprépare quand je fais replay ou home(sinon il y avait pas de sons)</t>
+  </si>
+  <si>
+    <t>Semaine 15</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Réussir à changer la couleur du deuxième imageview (il restait bleu)</t>
+  </si>
+  <si>
+    <t>Choisir de nouvelles chansons et les séparés en début-fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire différent niveau avec mes choix de chansons </t>
+  </si>
+  <si>
+    <t>Recherche Global au cours du projet</t>
+  </si>
+  <si>
+    <t>Créer une façon de perdre</t>
   </si>
 </sst>
 </file>
@@ -343,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +414,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -431,15 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,8 +1553,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1521,7 +1566,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1536,12 +1581,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
@@ -1577,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -1588,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
@@ -1599,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
@@ -1610,17 +1655,17 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>50</v>
@@ -1654,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
@@ -1665,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
@@ -1676,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3">
         <v>20</v>
@@ -1718,10 +1763,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>46</v>
@@ -1749,7 +1794,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -1811,7 +1856,7 @@
         <v>43179</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -1822,7 +1867,7 @@
         <v>43179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="15">
         <v>0.75</v>
@@ -1833,7 +1878,7 @@
         <v>43179</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -1844,7 +1889,7 @@
         <v>43185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -1855,50 +1900,50 @@
         <v>43185</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="27">
+      <c r="A19" s="35">
         <v>43185</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="27">
+      <c r="A21" s="35">
         <v>43186</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>43187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="15">
         <v>1.25</v>
@@ -1970,10 +2015,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>10</v>
@@ -1981,13 +2026,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4">
         <v>6</v>
@@ -1998,26 +2043,26 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="23"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="23"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="23"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="23"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="24"/>
+      <c r="B47" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2041,7 +2086,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2103,31 +2148,31 @@
         <v>43195</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="19">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="27">
+      <c r="A15" s="35">
         <v>43201</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="25">
+      <c r="B15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="15"/>
@@ -2228,10 +2273,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>2.5</v>
@@ -2239,13 +2284,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4">
         <v>3</v>
@@ -2256,26 +2301,26 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="23"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="23"/>
+      <c r="B44" s="31"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="23"/>
+      <c r="B45" s="31"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="23"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="24"/>
+      <c r="B47" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2294,10 +2339,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A6:C47"/>
+  <dimension ref="A6:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2305,14 +2350,15 @@
     <col min="1" max="1" width="10.54296875" customWidth="1"/>
     <col min="2" max="2" width="70.6328125" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2320,29 +2366,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="5.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -2352,164 +2398,227 @@
       <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
         <v>43213</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>43213</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
+      <c r="B15" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>43214</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>43214</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17" s="42"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>43214</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E18" s="42"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>43220</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E19" s="42"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>43221</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E20" s="42"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>43221</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E21" s="43"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>43221</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
+    <row r="23" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="21">
         <v>43227</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>43227</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <v>43227</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>43235</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="15">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="18">
+        <v>43236</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="37">
-        <v>43227</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
+        <v>43238</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
@@ -2535,55 +2644,49 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="15">
         <v>7</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="17"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="33"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="34"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="34"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="34"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="34"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="35"/>
-    </row>
+      <c r="A42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="16">
+        <f>SUM(C14:C41)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E16:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
